--- a/plot.xlsx
+++ b/plot.xlsx
@@ -1,31 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\codespace\Q_benchmarking\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8A96D5-1B23-43E1-8025-C8DC61B208A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="23040" windowHeight="12120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="QAOA jit" sheetId="1" r:id="rId1"/>
+    <sheet name="QAOA no jit" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -37,7 +65,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -45,12 +73,175 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +257,2181 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Mac</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>fitting (Mac)</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:forward val="0.30000000000000004"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'QAOA jit'!$B$1:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'QAOA jit'!$C$1:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87.79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>127.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>246.84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>310.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>436.29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>627.16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>805.34</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1108.8699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8CB7-48EC-807A-55FEE88D7AF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>PC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>fitting (PC)</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:forward val="0.30000000000000004"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'QAOA jit'!$B$1:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'QAOA jit'!$D$1:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>136.11000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>272.54000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8CB7-48EC-807A-55FEE88D7AF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1447363247"/>
+        <c:axId val="1447357487"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1447363247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1447357487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1447357487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1447363247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Mac</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:forward val="0.30000000000000004"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'QAOA no jit'!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'QAOA no jit'!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>33.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>312.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>504.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>869.24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1257.3599999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1731.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2602.4699999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B1DE-4E51-8577-8E1EBC79DBFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>PC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:forward val="0.30000000000000004"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'QAOA no jit'!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'QAOA no jit'!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>44.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>111.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>229.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>402.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>657.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1004.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1536.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B1DE-4E51-8577-8E1EBC79DBFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1285019423"/>
+        <c:axId val="1285013183"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1285019423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1285013183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1285013183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1285019423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>72390</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>377190</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB1F8697-39F0-8A07-E95C-B881D53F831D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>415636</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>24246</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>110836</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>135082</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7D8CCBB-7ED8-1B6C-45B3-C7BED76FE578}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +2696,281 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showFormulas="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="2" max="3" width="5.77734375" style="1"/>
+    <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="14.4" thickBot="1">
+      <c r="B1" s="2">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2.83</v>
+      </c>
+      <c r="D1" s="2">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="14.4" thickBot="1">
+      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6.07</v>
+      </c>
+      <c r="D2" s="2">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="14.4" thickBot="1">
+      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>12.07</v>
+      </c>
+      <c r="D3" s="2">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="14.4" thickBot="1">
+      <c r="B4" s="2">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>21.25</v>
+      </c>
+      <c r="D4" s="2">
+        <v>25.17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="14.4" thickBot="1">
+      <c r="B5" s="2">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>36.81</v>
+      </c>
+      <c r="D5" s="2">
+        <v>41.99</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="14.4" thickBot="1">
+      <c r="B6" s="2">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>61.42</v>
+      </c>
+      <c r="D6" s="2">
+        <v>65.569999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="14.4" thickBot="1">
+      <c r="B7" s="2">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>87.79</v>
+      </c>
+      <c r="D7" s="2">
+        <v>96.06</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="14.4" thickBot="1">
+      <c r="B8" s="2">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2">
+        <v>127.05</v>
+      </c>
+      <c r="D8" s="2">
+        <v>136.11000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="14.4" thickBot="1">
+      <c r="B9" s="2">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>246.84</v>
+      </c>
+      <c r="D9" s="2">
+        <v>272.54000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="14.4" thickBot="1">
+      <c r="B10" s="2">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2">
+        <v>310.25</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="2:4" ht="14.4" thickBot="1">
+      <c r="B11" s="2">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2">
+        <v>436.29</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:4" ht="14.4" thickBot="1">
+      <c r="B12" s="2">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2">
+        <v>627.16</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="2:4" ht="14.4" thickBot="1">
+      <c r="B13" s="2">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2">
+        <v>805.34</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:4" ht="14.4" thickBot="1">
+      <c r="B14" s="2">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1108.8699999999999</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49577BA8-7EB2-4613-8969-CE13BA933972}">
+  <dimension ref="B1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="1" spans="2:4" ht="14.4" thickBot="1"/>
+    <row r="2" spans="2:4" ht="14.4" thickBot="1">
+      <c r="B2" s="3">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>33.74</v>
+      </c>
+      <c r="D2" s="5">
+        <v>44.64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="14.4" thickBot="1">
+      <c r="B3" s="6">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>87.11</v>
+      </c>
+      <c r="D3" s="7">
+        <v>111.27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="14.4" thickBot="1">
+      <c r="B4" s="6">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>180.31</v>
+      </c>
+      <c r="D4" s="7">
+        <v>229.55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="14.4" thickBot="1">
+      <c r="B5" s="6">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>312.7</v>
+      </c>
+      <c r="D5" s="7">
+        <v>402.61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="14.4" thickBot="1">
+      <c r="B6" s="6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>504.86</v>
+      </c>
+      <c r="D6" s="7">
+        <v>657.84</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="14.4" thickBot="1">
+      <c r="B7" s="6">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>869.24</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1004.45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="14.4" thickBot="1">
+      <c r="B8" s="6">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1257.3599999999999</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1536.35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="14.4" thickBot="1">
+      <c r="B9" s="6">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1731.85</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="2:4" ht="14.4" thickBot="1">
+      <c r="B10" s="8">
+        <v>10</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2602.4699999999998</v>
+      </c>
+      <c r="D10" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/plot.xlsx
+++ b/plot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\codespace\Q_benchmarking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixxu/Library/CloudStorage/OneDrive-ImperialCollegeLondon/文件/Code/Q_benchmarking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8A96D5-1B23-43E1-8025-C8DC61B208A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C196F3-566F-7447-BDDC-44874FCA4DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="23040" windowHeight="12120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2260" yWindow="2260" windowWidth="23040" windowHeight="12120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QAOA jit" sheetId="1" r:id="rId1"/>
@@ -39,19 +39,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -214,7 +214,7 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -319,7 +319,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="3"/>
+            <c:order val="4"/>
             <c:forward val="0.30000000000000004"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
@@ -473,7 +473,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="3"/>
+            <c:order val="4"/>
             <c:forward val="0.30000000000000004"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
@@ -561,6 +561,15 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>272.54000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>474.73</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>947.65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1201.1400000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -639,7 +648,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1447357487"/>
@@ -702,7 +711,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1447363247"/>
@@ -744,7 +753,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -781,7 +790,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -851,7 +860,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="3"/>
+            <c:order val="4"/>
             <c:forward val="0.30000000000000004"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
@@ -974,7 +983,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="3"/>
+            <c:order val="4"/>
             <c:forward val="0.30000000000000004"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
@@ -1041,6 +1050,12 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1536.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2456.36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3650.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1067,6 +1082,7 @@
         <c:axId val="1285019423"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10.5"/>
           <c:min val="2"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1107,7 +1123,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1119,7 +1135,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1285013183"/>
@@ -1169,7 +1185,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1181,7 +1197,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1285019423"/>
@@ -1196,6 +1212,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1227,9 +1274,9 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2700,16 +2747,16 @@
   <dimension ref="B1:D14"/>
   <sheetViews>
     <sheetView showFormulas="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="5.77734375" style="1"/>
-    <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.83203125" style="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="14.4" thickBot="1">
+    <row r="1" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>2</v>
       </c>
@@ -2720,7 +2767,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="14.4" thickBot="1">
+    <row r="2" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
         <v>3</v>
       </c>
@@ -2731,7 +2778,7 @@
         <v>7.09</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="14.4" thickBot="1">
+    <row r="3" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>4</v>
       </c>
@@ -2742,7 +2789,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="14.4" thickBot="1">
+    <row r="4" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>5</v>
       </c>
@@ -2753,7 +2800,7 @@
         <v>25.17</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="14.4" thickBot="1">
+    <row r="5" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>6</v>
       </c>
@@ -2764,7 +2811,7 @@
         <v>41.99</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="14.4" thickBot="1">
+    <row r="6" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>7</v>
       </c>
@@ -2775,7 +2822,7 @@
         <v>65.569999999999993</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="14.4" thickBot="1">
+    <row r="7" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>8</v>
       </c>
@@ -2786,7 +2833,7 @@
         <v>96.06</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="14.4" thickBot="1">
+    <row r="8" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>9</v>
       </c>
@@ -2797,7 +2844,7 @@
         <v>136.11000000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="14.4" thickBot="1">
+    <row r="9" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>10</v>
       </c>
@@ -2808,7 +2855,7 @@
         <v>272.54000000000002</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="14.4" thickBot="1">
+    <row r="10" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>11</v>
       </c>
@@ -2817,34 +2864,40 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="2:4" ht="14.4" thickBot="1">
+    <row r="11" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>12</v>
       </c>
       <c r="C11" s="2">
         <v>436.29</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>474.73</v>
+      </c>
     </row>
-    <row r="12" spans="2:4" ht="14.4" thickBot="1">
+    <row r="12" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>13</v>
       </c>
       <c r="C12" s="2">
         <v>627.16</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>947.65</v>
+      </c>
     </row>
-    <row r="13" spans="2:4" ht="14.4" thickBot="1">
+    <row r="13" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>14</v>
       </c>
       <c r="C13" s="2">
         <v>805.34</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>1201.1400000000001</v>
+      </c>
     </row>
-    <row r="14" spans="2:4" ht="14.4" thickBot="1">
+    <row r="14" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>15</v>
       </c>
@@ -2863,16 +2916,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49577BA8-7EB2-4613-8969-CE13BA933972}">
-  <dimension ref="B1:D10"/>
+  <dimension ref="B1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:4" ht="14.4" thickBot="1"/>
-    <row r="2" spans="2:4" ht="14.4" thickBot="1">
+    <row r="1" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3">
         <v>2</v>
       </c>
@@ -2882,8 +2935,12 @@
       <c r="D2" s="5">
         <v>44.64</v>
       </c>
+      <c r="E2">
+        <f>D2/C2</f>
+        <v>1.3230586840545346</v>
+      </c>
     </row>
-    <row r="3" spans="2:4" ht="14.4" thickBot="1">
+    <row r="3" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6">
         <v>3</v>
       </c>
@@ -2893,8 +2950,12 @@
       <c r="D3" s="7">
         <v>111.27</v>
       </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E10" si="0">D3/C3</f>
+        <v>1.2773504764091379</v>
+      </c>
     </row>
-    <row r="4" spans="2:4" ht="14.4" thickBot="1">
+    <row r="4" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6">
         <v>4</v>
       </c>
@@ -2904,8 +2965,12 @@
       <c r="D4" s="7">
         <v>229.55</v>
       </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.2730852420830792</v>
+      </c>
     </row>
-    <row r="5" spans="2:4" ht="14.4" thickBot="1">
+    <row r="5" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
         <v>5</v>
       </c>
@@ -2915,8 +2980,12 @@
       <c r="D5" s="7">
         <v>402.61</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.2875279820914616</v>
+      </c>
     </row>
-    <row r="6" spans="2:4" ht="14.4" thickBot="1">
+    <row r="6" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
         <v>6</v>
       </c>
@@ -2926,8 +2995,12 @@
       <c r="D6" s="7">
         <v>657.84</v>
       </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1.3030146971437626</v>
+      </c>
     </row>
-    <row r="7" spans="2:4" ht="14.4" thickBot="1">
+    <row r="7" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>7</v>
       </c>
@@ -2937,8 +3010,12 @@
       <c r="D7" s="7">
         <v>1004.45</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1.1555496755786665</v>
+      </c>
     </row>
-    <row r="8" spans="2:4" ht="14.4" thickBot="1">
+    <row r="8" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>8</v>
       </c>
@@ -2948,24 +3025,40 @@
       <c r="D8" s="7">
         <v>1536.35</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1.2218855379525355</v>
+      </c>
     </row>
-    <row r="9" spans="2:4" ht="14.4" thickBot="1">
+    <row r="9" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>9</v>
       </c>
       <c r="C9" s="2">
         <v>1731.85</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7">
+        <v>2456.36</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1.4183445448508822</v>
+      </c>
     </row>
-    <row r="10" spans="2:4" ht="14.4" thickBot="1">
+    <row r="10" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8">
         <v>10</v>
       </c>
       <c r="C10" s="9">
         <v>2602.4699999999998</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="10">
+        <v>3650.68</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1.402775056004488</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
